--- a/Customized Statement Test Cases V1.xlsx
+++ b/Customized Statement Test Cases V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Bank\Git\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Рабочий стол\QA\Bank\banking-qa-web-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B32584-E043-4C30-A31A-DAC36EE8D285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2E821-3341-4A26-BD1E-33D88C35CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B276AFFD-5ADD-45F9-987D-0EAF9484163D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="10920" xr2:uid="{B276AFFD-5ADD-45F9-987D-0EAF9484163D}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom St" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Valid "Account No", digits only</t>
   </si>
   <si>
-    <t>1) Tipe valid "Account No"</t>
-  </si>
-  <si>
     <t>"Account No" accepted</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>360S60330396</t>
   </si>
   <si>
-    <t>Tipe "360S60330396" in "Account No" field</t>
-  </si>
-  <si>
     <t>"Characters are not allowed" error message</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>#360560330396</t>
   </si>
   <si>
-    <t>Tipe "#360560330396" in "Account No" field</t>
-  </si>
-  <si>
     <t>"Special characters are not allowed" error message</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>" 36056033039"</t>
   </si>
   <si>
-    <t>Tipe " 36056033039" in "Account No" field</t>
-  </si>
-  <si>
     <t>"First characters can not be spase" error message</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>"36056 033039"</t>
   </si>
   <si>
-    <t>Tipe "36056 033039" in "Account No" field</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Account No" cannot have space" error message </t>
   </si>
   <si>
@@ -138,195 +123,210 @@
     <t xml:space="preserve"> Empty "Customer ID" field</t>
   </si>
   <si>
+    <t>"Account Number must not be blank" error message</t>
+  </si>
+  <si>
+    <t>"Account Number must not be blan" error message</t>
+  </si>
+  <si>
+    <t>СS7</t>
+  </si>
+  <si>
+    <t>Valid "Amount Lower Limit", digits only</t>
+  </si>
+  <si>
+    <t>Data accepted</t>
+  </si>
+  <si>
+    <t>СS8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Amount Lower Limit" field, digits + letter </t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>СS9</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit" field, digits + sp. characters</t>
+  </si>
+  <si>
+    <t>500$</t>
+  </si>
+  <si>
+    <t>СS10</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit" field starts with space character</t>
+  </si>
+  <si>
+    <t>" 500"</t>
+  </si>
+  <si>
+    <t>СS11</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit" field contain space character</t>
+  </si>
+  <si>
+    <t>"50 0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Amount Lower Limit" cannot have space" error message </t>
+  </si>
+  <si>
+    <t>СS12</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit" field starts with "0" character</t>
+  </si>
+  <si>
+    <t>"050"</t>
+  </si>
+  <si>
+    <t>"First characters can not be 0" error message</t>
+  </si>
+  <si>
+    <t>СS13</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit" required field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empty "Amount Lower Limit" field</t>
+  </si>
+  <si>
+    <t>"Amount Lower Limit must not be blank" error message</t>
+  </si>
+  <si>
+    <t>СS14</t>
+  </si>
+  <si>
+    <t>Valid "Number of Transaction", digits only</t>
+  </si>
+  <si>
+    <t>СS15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Number of Transaction" field, digits + letter </t>
+  </si>
+  <si>
+    <t>1o</t>
+  </si>
+  <si>
+    <t>СS16</t>
+  </si>
+  <si>
+    <t>"Number of Transaction" field, digits + sp. characters</t>
+  </si>
+  <si>
+    <t>1'0</t>
+  </si>
+  <si>
+    <t>СS17</t>
+  </si>
+  <si>
+    <t>"Number of Transaction" field starts with space character</t>
+  </si>
+  <si>
+    <t>" 10"</t>
+  </si>
+  <si>
+    <t>СS18</t>
+  </si>
+  <si>
+    <t>"Number of Transaction" field contain space character</t>
+  </si>
+  <si>
+    <t>"1 0"</t>
+  </si>
+  <si>
+    <t>СS19</t>
+  </si>
+  <si>
+    <t>"Number of Transaction" field starts with "0" character</t>
+  </si>
+  <si>
+    <t>"01"</t>
+  </si>
+  <si>
+    <t>СS20</t>
+  </si>
+  <si>
+    <t>"Number of Transaction" required field</t>
+  </si>
+  <si>
+    <t>"Number of Transaction must not be blank" error message</t>
+  </si>
+  <si>
+    <t>1) Type valid "Account No"</t>
+  </si>
+  <si>
+    <t>Type "360S60330396" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type "#360560330396" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type " 36056033039" in "Account No" field</t>
+  </si>
+  <si>
+    <t>Type "36056 033039" in "Account No" field</t>
+  </si>
+  <si>
     <t>1) Navigate mouse pointer over the "Account No" field and select it
-2) Do not tipe any value in  "Account No" field
+2) Do not type any value in  "Account No" field
 3) Press "TAB" and move to "Submit" button</t>
   </si>
   <si>
-    <t>"Account Number must not be blank" error message</t>
-  </si>
-  <si>
-    <t>"Account Number must not be blan" error message</t>
-  </si>
-  <si>
-    <t>СS7</t>
-  </si>
-  <si>
-    <t>Valid "Amount Lower Limit", digits only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tipe "500" in "Amount Lower Limit" field
+    <t xml:space="preserve">1) Type "500" in "Amount Lower Limit" field
 </t>
   </si>
   <si>
-    <t>Data accepted</t>
-  </si>
-  <si>
-    <t>СS8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Amount Lower Limit" field, digits + letter </t>
-  </si>
-  <si>
-    <t>S00</t>
-  </si>
-  <si>
-    <t>Tipe "S00" in "Amount Lower Limit" field</t>
-  </si>
-  <si>
-    <t>СS9</t>
-  </si>
-  <si>
-    <t>"Amount Lower Limit" field, digits + sp. characters</t>
-  </si>
-  <si>
-    <t>500$</t>
-  </si>
-  <si>
-    <t>Tipe "500$" in "Amount Lower Limit" field</t>
-  </si>
-  <si>
-    <t>СS10</t>
-  </si>
-  <si>
-    <t>"Amount Lower Limit" field starts with space character</t>
-  </si>
-  <si>
-    <t>" 500"</t>
-  </si>
-  <si>
-    <t>Tipe " 500" in "Amount Lower Limit" field</t>
-  </si>
-  <si>
-    <t>СS11</t>
-  </si>
-  <si>
-    <t>"Amount Lower Limit" field contain space character</t>
-  </si>
-  <si>
-    <t>"50 0"</t>
-  </si>
-  <si>
-    <t>Tipe "50 0" in "Amount Lower Limit" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Amount Lower Limit" cannot have space" error message </t>
-  </si>
-  <si>
-    <t>СS12</t>
-  </si>
-  <si>
-    <t>"Amount Lower Limit" field starts with "0" character</t>
-  </si>
-  <si>
-    <t>"050"</t>
-  </si>
-  <si>
-    <t>Tipe "050" in "Amount Lower Limit" field</t>
-  </si>
-  <si>
-    <t>"First characters can not be 0" error message</t>
-  </si>
-  <si>
-    <t>СS13</t>
-  </si>
-  <si>
-    <t>"Amount Lower Limit" required field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Empty "Amount Lower Limit" field</t>
+    <t>Type "S00" in "Amount Lower Limit" field</t>
+  </si>
+  <si>
+    <t>Type "500$" in "Amount Lower Limit" field</t>
+  </si>
+  <si>
+    <t>Type " 500" in "Amount Lower Limit" field</t>
+  </si>
+  <si>
+    <t>Type "50 0" in "Amount Lower Limit" field</t>
+  </si>
+  <si>
+    <t>Type "050" in "Amount Lower Limit" field</t>
   </si>
   <si>
     <t>1) Navigate mouse pointer over the "Amount Lower Limit" field and select it
-2) Do not tipe any value in  "Amount Lower Limit" field
+2) Do not type any value in  "Amount Lower Limit" field
 3) Press "TAB" and move to next text field</t>
   </si>
   <si>
-    <t>"Amount Lower Limit must not be blank" error message</t>
-  </si>
-  <si>
-    <t>СS14</t>
-  </si>
-  <si>
-    <t>Valid "Number of Transaction", digits only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Tipe "10" in "Number of Transaction" field
+    <t xml:space="preserve">1) Type "10" in "Number of Transaction" field
 </t>
   </si>
   <si>
-    <t>СS15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Number of Transaction" field, digits + letter </t>
-  </si>
-  <si>
-    <t>1o</t>
-  </si>
-  <si>
-    <t>Tipe "1o" in "Number of Transaction" field</t>
-  </si>
-  <si>
-    <t>СS16</t>
-  </si>
-  <si>
-    <t>"Number of Transaction" field, digits + sp. characters</t>
-  </si>
-  <si>
-    <t>1'0</t>
-  </si>
-  <si>
-    <t>Tipe "1'0" in "Number of Transaction" field</t>
-  </si>
-  <si>
-    <t>СS17</t>
-  </si>
-  <si>
-    <t>"Number of Transaction" field starts with space character</t>
-  </si>
-  <si>
-    <t>" 10"</t>
-  </si>
-  <si>
-    <t>Tipe " 10" in "Number of Transaction" field</t>
-  </si>
-  <si>
-    <t>СS18</t>
-  </si>
-  <si>
-    <t>"Number of Transaction" field contain space character</t>
-  </si>
-  <si>
-    <t>"1 0"</t>
-  </si>
-  <si>
-    <t>Tipe "1 0" in "Number of Transaction" field</t>
-  </si>
-  <si>
-    <t>СS19</t>
-  </si>
-  <si>
-    <t>"Number of Transaction" field starts with "0" character</t>
-  </si>
-  <si>
-    <t>"01"</t>
-  </si>
-  <si>
-    <t>Tipe "01" in "Number of Transaction" field</t>
-  </si>
-  <si>
-    <t>СS20</t>
-  </si>
-  <si>
-    <t>"Number of Transaction" required field</t>
+    <t>Type "1o" in "Number of Transaction" field</t>
+  </si>
+  <si>
+    <t>Type "1'0" in "Number of Transaction" field</t>
+  </si>
+  <si>
+    <t>Type " 10" in "Number of Transaction" field</t>
+  </si>
+  <si>
+    <t>Type "1 0" in "Number of Transaction" field</t>
   </si>
   <si>
     <t>1) Navigate mouse pointer over the "Number of Transaction" field and select it
-2) Do not tipe any value in  "Number of Transaction" field
+2) Do not type any value in  "Number of Transaction" field
 3) Press "TAB" and move to "Submit button"</t>
   </si>
   <si>
-    <t>"Number of Transaction must not be blank" error message</t>
+    <t>Ttype "01" in "Number of Transaction" field</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,453 +802,453 @@
         <v>360560330396</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>500</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="5">
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
